--- a/data/trans_orig/P79$alquiler_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79$alquiler_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>33640</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22879</v>
+        <v>23326</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47613</v>
+        <v>47813</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07774324492268418</v>
+        <v>0.07774324492268417</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05287459646655078</v>
+        <v>0.05390858055435714</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.110036459159471</v>
+        <v>0.1104973843640558</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -762,19 +762,19 @@
         <v>52146</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40897</v>
+        <v>39211</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69130</v>
+        <v>67930</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09871518076932335</v>
+        <v>0.09871518076932333</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07742063556256425</v>
+        <v>0.07422747445365789</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1308674560824788</v>
+        <v>0.128594801306279</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -783,19 +783,19 @@
         <v>85786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67587</v>
+        <v>67983</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105095</v>
+        <v>105880</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0892718080310657</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07033360957159315</v>
+        <v>0.07074520432201736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1093652990228704</v>
+        <v>0.1101820938496827</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4041</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11044</v>
+        <v>11246</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.009339277522253994</v>
+        <v>0.009339277522253992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002681640534835066</v>
+        <v>0.002673206627149225</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.025522632016064</v>
+        <v>0.02598897719861989</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>4041</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11702</v>
+        <v>11143</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004205347536517919</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001239559016479269</v>
+        <v>0.001234530447304893</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01217774216003886</v>
+        <v>0.01159532620447328</v>
       </c>
     </row>
     <row r="6">
@@ -891,16 +891,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3342</v>
+        <v>3478</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.001158326717785094</v>
+        <v>0.001158326717785093</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.006327479955080038</v>
+        <v>0.00658320998055867</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3562</v>
+        <v>3092</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0006367482126477075</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.003706259946189882</v>
+        <v>0.003217965222060444</v>
       </c>
     </row>
     <row r="7">
@@ -938,19 +938,19 @@
         <v>21047</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12106</v>
+        <v>11463</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37934</v>
+        <v>36336</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04864059454314382</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02797669899515836</v>
+        <v>0.0264917781724039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08766796067298364</v>
+        <v>0.08397406102819106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -959,19 +959,19 @@
         <v>12588</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7292</v>
+        <v>7567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20067</v>
+        <v>21166</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02383028091558127</v>
+        <v>0.02383028091558126</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0138050302154758</v>
+        <v>0.01432506002503056</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03798720783366007</v>
+        <v>0.0400681508026092</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -980,19 +980,19 @@
         <v>33635</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22761</v>
+        <v>22375</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50535</v>
+        <v>50846</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03500202209634084</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02368576272038213</v>
+        <v>0.02328448688017247</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05258858345455529</v>
+        <v>0.0529117554951684</v>
       </c>
     </row>
     <row r="8">
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5708</v>
+        <v>6793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002610587926128722</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01319085266614922</v>
+        <v>0.0156978726337388</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1030,19 +1030,19 @@
         <v>3344</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7824</v>
+        <v>8021</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.006329552528517053</v>
+        <v>0.00632955252851705</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001624486494855986</v>
+        <v>0.001647209775569471</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01481183280235489</v>
+        <v>0.01518412147198359</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1051,19 +1051,19 @@
         <v>4473</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1639</v>
+        <v>1499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10766</v>
+        <v>9508</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.004654954189214617</v>
+        <v>0.004654954189214616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001705504742312568</v>
+        <v>0.001559838339719169</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01120385673606667</v>
+        <v>0.009894622600911757</v>
       </c>
     </row>
     <row r="9">
@@ -1080,19 +1080,19 @@
         <v>9612</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4701</v>
+        <v>4762</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18068</v>
+        <v>17294</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02221370239131679</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01086493011489988</v>
+        <v>0.01100539147366854</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0417552453343204</v>
+        <v>0.03996845679500469</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -1101,19 +1101,19 @@
         <v>9257</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4885</v>
+        <v>5036</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15791</v>
+        <v>16270</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01752309313620067</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009246953833776116</v>
+        <v>0.009532949701366634</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02989223793233319</v>
+        <v>0.03079907506487066</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>21</v>
@@ -1122,19 +1122,19 @@
         <v>18868</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11390</v>
+        <v>12362</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27614</v>
+        <v>28473</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01963520962794939</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01185308376641016</v>
+        <v>0.01286465234027405</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02873655413906379</v>
+        <v>0.02962956694918538</v>
       </c>
     </row>
     <row r="10">
@@ -1151,19 +1151,19 @@
         <v>31774</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23328</v>
+        <v>22354</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43537</v>
+        <v>44213</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07343208022946215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05391125727001151</v>
+        <v>0.05166185255279161</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1006155958035816</v>
+        <v>0.1021779791354583</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1172,19 +1172,19 @@
         <v>25668</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17673</v>
+        <v>18321</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35811</v>
+        <v>35872</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04859051334351741</v>
+        <v>0.04859051334351738</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03345545048244622</v>
+        <v>0.0346825105750392</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0677916883632031</v>
+        <v>0.0679075464164105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -1193,19 +1193,19 @@
         <v>57442</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43721</v>
+        <v>43803</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72492</v>
+        <v>71340</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05977632743439582</v>
+        <v>0.05977632743439584</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0454971302907339</v>
+        <v>0.04558338729734576</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07543763189720384</v>
+        <v>0.07423902752568982</v>
       </c>
     </row>
     <row r="11">
@@ -1222,19 +1222,19 @@
         <v>225226</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>200828</v>
+        <v>202361</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>248717</v>
+        <v>251818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5205102007495055</v>
+        <v>0.5205102007495056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4641238621319408</v>
+        <v>0.4676675854036264</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5747977848282203</v>
+        <v>0.5819659726479978</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>430</v>
@@ -1243,19 +1243,19 @@
         <v>294080</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>271865</v>
+        <v>273830</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>315026</v>
+        <v>315156</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5567083168440773</v>
+        <v>0.5567083168440771</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5146541919605999</v>
+        <v>0.5183744599573523</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5963598193227175</v>
+        <v>0.5966067589386943</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -1264,19 +1264,19 @@
         <v>519306</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>486620</v>
+        <v>491456</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>549918</v>
+        <v>551089</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5404088056685964</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5063938651238682</v>
+        <v>0.5114262037483521</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5722643684520612</v>
+        <v>0.5734825257832977</v>
       </c>
     </row>
     <row r="12">
@@ -1293,19 +1293,19 @@
         <v>70553</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55012</v>
+        <v>54242</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92481</v>
+        <v>89702</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1630518785940325</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1271351504288022</v>
+        <v>0.1253561114667118</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2137293950926071</v>
+        <v>0.2073054913389994</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>82</v>
@@ -1314,19 +1314,19 @@
         <v>62297</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50158</v>
+        <v>50274</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>77799</v>
+        <v>78114</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1179305443896527</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09495223101607163</v>
+        <v>0.09517051313505416</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1472769867498226</v>
+        <v>0.1478729786964784</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>140</v>
@@ -1335,19 +1335,19 @@
         <v>132850</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>111647</v>
+        <v>110552</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>157188</v>
+        <v>156823</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1382480573009721</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1161841101369992</v>
+        <v>0.1150438690008612</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1635759348663498</v>
+        <v>0.1631957471401874</v>
       </c>
     </row>
     <row r="13">
@@ -1364,19 +1364,19 @@
         <v>132461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111957</v>
+        <v>112145</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>153295</v>
+        <v>155767</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3061240336152161</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.258738475454131</v>
+        <v>0.2591726810011443</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3542723213797301</v>
+        <v>0.3599863121853999</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>212</v>
@@ -1385,19 +1385,19 @@
         <v>169820</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>150334</v>
+        <v>149395</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>191191</v>
+        <v>191096</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3214773089330928</v>
+        <v>0.3214773089330927</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2845904341097601</v>
+        <v>0.2828116462968771</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3619346871144237</v>
+        <v>0.3617537411963059</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>336</v>
@@ -1406,19 +1406,19 @@
         <v>302281</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>272117</v>
+        <v>273964</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>330721</v>
+        <v>332897</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3145639413431841</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2831750719684287</v>
+        <v>0.2850962608043869</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.344160053990596</v>
+        <v>0.3464247847188878</v>
       </c>
     </row>
     <row r="14">
@@ -1435,19 +1435,19 @@
         <v>12625</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5340</v>
+        <v>5334</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26842</v>
+        <v>27335</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02917710150947655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01234002754915329</v>
+        <v>0.01232735661814048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06203307643127203</v>
+        <v>0.06317162995722971</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1456,19 +1456,19 @@
         <v>8654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4254</v>
+        <v>4445</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15882</v>
+        <v>15872</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01638287082417832</v>
+        <v>0.01638287082417831</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008053970324034277</v>
+        <v>0.008415295609854869</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03006621063311437</v>
+        <v>0.03004673933185625</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -1477,19 +1477,19 @@
         <v>21279</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12956</v>
+        <v>12209</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37798</v>
+        <v>37720</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0221439359992793</v>
+        <v>0.02214393599927931</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01348256609256797</v>
+        <v>0.01270478430218907</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0393335203132674</v>
+        <v>0.03925260207120224</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>25084</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15481</v>
+        <v>15303</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>38273</v>
+        <v>38835</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02631228733356685</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.016238274891884</v>
+        <v>0.01605180411536931</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04014643724903618</v>
+        <v>0.04073586106284589</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>22</v>
@@ -1531,19 +1531,19 @@
         <v>22039</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13933</v>
+        <v>14376</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33392</v>
+        <v>36122</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01991430936062459</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01259001103632578</v>
+        <v>0.01299046126903869</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03017357006069831</v>
+        <v>0.03264007230579632</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>42</v>
@@ -1552,19 +1552,19 @@
         <v>47123</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>34311</v>
+        <v>34385</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>64528</v>
+        <v>62970</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02287517485044035</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01665584569284799</v>
+        <v>0.01669172012599237</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03132423782517806</v>
+        <v>0.03056759575300551</v>
       </c>
     </row>
     <row r="16">
@@ -1581,19 +1581,19 @@
         <v>6973</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2562</v>
+        <v>3172</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14878</v>
+        <v>15553</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.007314261946072423</v>
+        <v>0.007314261946072422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002687754161130296</v>
+        <v>0.003327188218037058</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01560672217797969</v>
+        <v>0.01631467161890963</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1602,19 +1602,19 @@
         <v>4437</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1961</v>
+        <v>2014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9551</v>
+        <v>9686</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004009653755106515</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001772352715966542</v>
+        <v>0.001819849717594708</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008630620246199957</v>
+        <v>0.008752700909078129</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1623,19 +1623,19 @@
         <v>11410</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6059</v>
+        <v>5618</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19436</v>
+        <v>19388</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.005538965108064144</v>
+        <v>0.005538965108064143</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002941094173695083</v>
+        <v>0.002726954600261535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0094351197276679</v>
+        <v>0.009411617344575563</v>
       </c>
     </row>
     <row r="17">
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12082</v>
+        <v>11678</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002554641224158896</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01091714867595875</v>
+        <v>0.01055228135622049</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13234</v>
+        <v>12221</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001372400667617201</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.006424169741584809</v>
+        <v>0.005932362715467077</v>
       </c>
     </row>
     <row r="18">
@@ -1715,19 +1715,19 @@
         <v>3324</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9041</v>
+        <v>10653</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003486891866598423</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0007253708324277773</v>
+        <v>0.0007411047053047727</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.009483075648583904</v>
+        <v>0.01117448131847556</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1736,19 +1736,19 @@
         <v>3718</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1397</v>
+        <v>1420</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8254</v>
+        <v>8692</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.003359989349408124</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001262661819752209</v>
+        <v>0.001283007073098001</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.007458293499670046</v>
+        <v>0.007853921045609979</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -1757,19 +1757,19 @@
         <v>7043</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3178</v>
+        <v>3130</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14053</v>
+        <v>14836</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.003418717479656236</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001542470566901839</v>
+        <v>0.001519259465304151</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006821792457753135</v>
+        <v>0.007201712197988498</v>
       </c>
     </row>
     <row r="19">
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4046</v>
+        <v>4790</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0007318277160791453</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.003656171532037053</v>
+        <v>0.004328457361305459</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4105</v>
+        <v>4816</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0003931514283217879</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.001992524540038451</v>
+        <v>0.002337977162789742</v>
       </c>
     </row>
     <row r="20">
@@ -1849,19 +1849,19 @@
         <v>16360</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9773</v>
+        <v>9310</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26753</v>
+        <v>26461</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01716122948795749</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0102516230377008</v>
+        <v>0.009765405157977566</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02806204981388253</v>
+        <v>0.02775663503149474</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1870,19 +1870,19 @@
         <v>8651</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4449</v>
+        <v>4690</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15316</v>
+        <v>15400</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007816815902287239</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004020505794072226</v>
+        <v>0.004238149520499078</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01383917291457161</v>
+        <v>0.01391562088472338</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -1891,19 +1891,19 @@
         <v>25011</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16659</v>
+        <v>17031</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36165</v>
+        <v>37321</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01214123712183279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008086735757032767</v>
+        <v>0.008267450571112117</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01755591034431931</v>
+        <v>0.01811674760051609</v>
       </c>
     </row>
     <row r="21">
@@ -1920,19 +1920,19 @@
         <v>12205</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5717</v>
+        <v>5282</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25211</v>
+        <v>24154</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01280288401639987</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00599690508729265</v>
+        <v>0.005540563314462801</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02644544570136086</v>
+        <v>0.0253358398211857</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -1941,19 +1941,19 @@
         <v>14793</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9391</v>
+        <v>8866</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22183</v>
+        <v>22379</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01336742195391661</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008485401987825197</v>
+        <v>0.008011317722787761</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02004478421444051</v>
+        <v>0.02022187161449328</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>31</v>
@@ -1962,19 +1962,19 @@
         <v>26999</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17875</v>
+        <v>18264</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>40296</v>
+        <v>41045</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01310616427157476</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008677228714363583</v>
+        <v>0.008865921634949453</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01956098986633257</v>
+        <v>0.01992453043512282</v>
       </c>
     </row>
     <row r="22">
@@ -1991,19 +1991,19 @@
         <v>732245</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>701656</v>
+        <v>703591</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>759715</v>
+        <v>761257</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7680858820971245</v>
+        <v>0.7680858820971246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.735999851593837</v>
+        <v>0.7380292651458871</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7969010013333336</v>
+        <v>0.7985187254822622</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1304</v>
@@ -2012,19 +2012,19 @@
         <v>885402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>862754</v>
+        <v>861692</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>907910</v>
+        <v>908825</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8000534475998905</v>
+        <v>0.8000534475998906</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7795879775475826</v>
+        <v>0.7786285494275683</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8203915954794282</v>
+        <v>0.8212186292735378</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2002</v>
@@ -2033,19 +2033,19 @@
         <v>1617647</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1579824</v>
+        <v>1577647</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1655371</v>
+        <v>1652664</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.785259451451286</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7668988314540763</v>
+        <v>0.76584193888357</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8035718270847471</v>
+        <v>0.8022576878348691</v>
       </c>
     </row>
     <row r="23">
@@ -2062,19 +2062,19 @@
         <v>78414</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>60803</v>
+        <v>60658</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>99365</v>
+        <v>99225</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08225262007143057</v>
+        <v>0.08225262007143058</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06377897430213987</v>
+        <v>0.06362709444746975</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1042287213526291</v>
+        <v>0.1040813681418511</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>98</v>
@@ -2083,19 +2083,19 @@
         <v>71821</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>59437</v>
+        <v>57776</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>86761</v>
+        <v>86891</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06489783310605333</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05370724739216946</v>
+        <v>0.05220690443562695</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07839790001236163</v>
+        <v>0.0785147741912981</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>171</v>
@@ -2104,19 +2104,19 @@
         <v>150236</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>128449</v>
+        <v>127806</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>175540</v>
+        <v>175212</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.07292930649127025</v>
+        <v>0.07292930649127026</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06235360875387139</v>
+        <v>0.0620411050176844</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08521289960119102</v>
+        <v>0.0850536264839082</v>
       </c>
     </row>
     <row r="24">
@@ -2133,19 +2133,19 @@
         <v>130818</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>109657</v>
+        <v>108522</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>156582</v>
+        <v>156031</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1372207137074592</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1150239234616671</v>
+        <v>0.1138337309543265</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1642466291615796</v>
+        <v>0.1636686275526739</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>204</v>
@@ -2154,19 +2154,19 @@
         <v>152231</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>133719</v>
+        <v>132880</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>172496</v>
+        <v>172766</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1375563163794518</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1208291852723424</v>
+        <v>0.1200705262896621</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1558681174305858</v>
+        <v>0.1561119079863627</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>336</v>
@@ -2175,19 +2175,19 @@
         <v>283048</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>252151</v>
+        <v>255176</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>316190</v>
+        <v>313510</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1374010056900441</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1224023046278656</v>
+        <v>0.1238711120110701</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.15348910418668</v>
+        <v>0.1521880092729134</v>
       </c>
     </row>
     <row r="25">
@@ -2204,19 +2204,19 @@
         <v>6120</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2214</v>
+        <v>2265</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14193</v>
+        <v>14043</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.006419622475080776</v>
+        <v>0.006419622475080777</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00232246223377602</v>
+        <v>0.0023763792312468</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01488760403535715</v>
+        <v>0.01473019483177026</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2225,19 +2225,19 @@
         <v>2083</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5616</v>
+        <v>5568</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.001881993507488617</v>
+        <v>0.001881993507488618</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0006093442288951903</v>
+        <v>0.0006027134088734602</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.005074373031983528</v>
+        <v>0.005031069361776166</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2246,19 +2246,19 @@
         <v>8203</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3968</v>
+        <v>3630</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16822</v>
+        <v>16205</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003981923996863745</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001926265204299408</v>
+        <v>0.001762157186043982</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008165858524909612</v>
+        <v>0.007866399160748896</v>
       </c>
     </row>
     <row r="26">
@@ -2279,19 +2279,19 @@
         <v>3219</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8011</v>
+        <v>8723</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003087462552853304</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0008928831182696919</v>
+        <v>0.0008828255147825771</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007684746251250339</v>
+        <v>0.008366996875192295</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2300,19 +2300,19 @@
         <v>4814</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1281</v>
+        <v>981</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14756</v>
+        <v>15226</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.004636702472601413</v>
+        <v>0.004636702472601412</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001233348247151222</v>
+        <v>0.0009445083925188674</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01421191695565331</v>
+        <v>0.01466500424830242</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2321,19 +2321,19 @@
         <v>8033</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3530</v>
+        <v>3427</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18673</v>
+        <v>17500</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.003860514857898892</v>
+        <v>0.003860514857898891</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001696714937039045</v>
+        <v>0.001647071610560388</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008974019900358395</v>
+        <v>0.008410567714509135</v>
       </c>
     </row>
     <row r="27">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6740</v>
+        <v>8280</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.002121841599775121</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.006465568891203987</v>
+        <v>0.007942924172132501</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -2371,19 +2371,19 @@
         <v>3601</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1408</v>
+        <v>1391</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7974</v>
+        <v>8053</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.00346797655349581</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.001355953592332829</v>
+        <v>0.001339431273838724</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.00767967217469182</v>
+        <v>0.007755644231042809</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7</v>
@@ -2392,19 +2392,19 @@
         <v>5813</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>11379</v>
+        <v>12537</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.002793546940962953</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0012361193822613</v>
+        <v>0.00123455281944779</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.005468774962002493</v>
+        <v>0.006024993739343428</v>
       </c>
     </row>
     <row r="28">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4087</v>
+        <v>3651</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0006948334182713158</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.003936396012698926</v>
+        <v>0.003516382578711329</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4418</v>
+        <v>3600</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.000346713616638977</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.002123353604362445</v>
+        <v>0.00173007477096364</v>
       </c>
     </row>
     <row r="30">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3022</v>
+        <v>3492</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0007123230924483241</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.002910380319509908</v>
+        <v>0.00336367182931595</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3738</v>
+        <v>3670</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0003554407561637775</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.001796636217151203</v>
+        <v>0.001763779070715148</v>
       </c>
     </row>
     <row r="31">
@@ -2594,19 +2594,19 @@
         <v>7470</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2394</v>
+        <v>2837</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15204</v>
+        <v>16044</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.007165082098716892</v>
+        <v>0.007165082098716893</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.002296581703533357</v>
+        <v>0.002721735382794188</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01458446027962553</v>
+        <v>0.01538983153078524</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -2615,19 +2615,19 @@
         <v>6141</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12071</v>
+        <v>12047</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.005914108129971176</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002807604240922683</v>
+        <v>0.00280887754304834</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01162603829286613</v>
+        <v>0.01160260678404191</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>14</v>
@@ -2636,19 +2636,19 @@
         <v>13610</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7429</v>
+        <v>7329</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>23429</v>
+        <v>23594</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006540860957908606</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003570234754504404</v>
+        <v>0.00352202047197467</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01125980698549784</v>
+        <v>0.0113389059200988</v>
       </c>
     </row>
     <row r="32">
@@ -2665,19 +2665,19 @@
         <v>2928</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7686</v>
+        <v>8113</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002808671160846061</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0008127670298727602</v>
+        <v>0.0008209804287513417</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007372306602220012</v>
+        <v>0.007781961136236024</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2686,19 +2686,19 @@
         <v>4044</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1479</v>
+        <v>1510</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9825</v>
+        <v>9295</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003894865313371684</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001424023631379108</v>
+        <v>0.001454042726742631</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.009462428429335073</v>
+        <v>0.008952402383828826</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -2707,19 +2707,19 @@
         <v>6972</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3144</v>
+        <v>3367</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>13472</v>
+        <v>14175</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.003350669132001811</v>
+        <v>0.00335066913200181</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0015107792977549</v>
+        <v>0.001617978783456124</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00647438169901531</v>
+        <v>0.0068123958447335</v>
       </c>
     </row>
     <row r="33">
@@ -2736,19 +2736,19 @@
         <v>998853</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>982714</v>
+        <v>981818</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1010681</v>
+        <v>1010741</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9581395740880735</v>
+        <v>0.9581395740880736</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9426582426527461</v>
+        <v>0.9417988788395735</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9694859281556687</v>
+        <v>0.9695434323623785</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1441</v>
@@ -2757,19 +2757,19 @@
         <v>984774</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>970744</v>
+        <v>969898</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>997773</v>
+        <v>997161</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.9484654614048841</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.9349526335327155</v>
+        <v>0.9341385744447108</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9609858318829438</v>
+        <v>0.9603963481468263</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2423</v>
@@ -2778,19 +2778,19 @@
         <v>1983627</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1962686</v>
+        <v>1962810</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2001850</v>
+        <v>2003279</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.9533123068496807</v>
+        <v>0.9533123068496809</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.9432483689108236</v>
+        <v>0.9433082212446253</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.9620702411809824</v>
+        <v>0.962757167787899</v>
       </c>
     </row>
     <row r="34">
@@ -2807,19 +2807,19 @@
         <v>8639</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4054</v>
+        <v>4052</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16460</v>
+        <v>16782</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.00828734909239706</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00388870780463013</v>
+        <v>0.003886876930296619</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01578912744566679</v>
+        <v>0.01609814610729753</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -2828,19 +2828,19 @@
         <v>9480</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5291</v>
+        <v>5249</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16253</v>
+        <v>16417</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.009130814078591429</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005096323183227378</v>
+        <v>0.005055335050608381</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01565407492139171</v>
+        <v>0.01581201135999678</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>22</v>
@@ -2849,19 +2849,19 @@
         <v>18120</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11576</v>
+        <v>11091</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>27725</v>
+        <v>27852</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.008708228094733133</v>
+        <v>0.008708228094733135</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005563375417774707</v>
+        <v>0.005330411574458942</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0133242721780619</v>
+        <v>0.01338544627591804</v>
       </c>
     </row>
     <row r="35">
@@ -2878,19 +2878,19 @@
         <v>25026</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16387</v>
+        <v>16710</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38046</v>
+        <v>39049</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02400579610000849</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01571937380528729</v>
+        <v>0.0160289565545083</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03649552019873467</v>
+        <v>0.03745706772973515</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>34</v>
@@ -2899,19 +2899,19 @@
         <v>28330</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>19319</v>
+        <v>19411</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>40621</v>
+        <v>40656</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02728500984822402</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01860712351216954</v>
+        <v>0.01869545170274774</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03912373014979627</v>
+        <v>0.03915661844161201</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>60</v>
@@ -2920,19 +2920,19 @@
         <v>53355</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>41342</v>
+        <v>40467</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>70622</v>
+        <v>70096</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02564208478227234</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01986863036238089</v>
+        <v>0.01944782984931118</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03394041778398095</v>
+        <v>0.03368752661548301</v>
       </c>
     </row>
     <row r="36">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8028</v>
+        <v>7160</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.002380771518643255</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.008308449516735979</v>
+        <v>0.007410443655838387</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -3021,19 +3021,19 @@
         <v>5156</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2034</v>
+        <v>2108</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12400</v>
+        <v>11552</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.005738547942836721</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.002263779774489075</v>
+        <v>0.00234654784733293</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01380129230117327</v>
+        <v>0.01285823742519806</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>8</v>
@@ -3042,19 +3042,19 @@
         <v>7456</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3204</v>
+        <v>3429</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>14619</v>
+        <v>16551</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.003998606861571008</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001718408447721401</v>
+        <v>0.001839109190279336</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.007840142671405557</v>
+        <v>0.008875885249092304</v>
       </c>
     </row>
     <row r="38">
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3505</v>
+        <v>4608</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.000785148582648251</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.003901085068014635</v>
+        <v>0.005129393291079722</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4279</v>
+        <v>4051</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0003782983039923757</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.002294569232554939</v>
+        <v>0.002172410453030412</v>
       </c>
     </row>
     <row r="41">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7453</v>
+        <v>7283</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.001345086634367831</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.007713283313018549</v>
+        <v>0.007537426861672177</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>5125</v>
+        <v>4893</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.001615436172740004</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.005704290888542669</v>
+        <v>0.005446193523386802</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -3317,19 +3317,19 @@
         <v>2751</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>8171</v>
+        <v>8589</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.001475345765074475</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0003736748602293003</v>
+        <v>0.0003780886521601499</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.004382032394147367</v>
+        <v>0.00460623063412429</v>
       </c>
     </row>
     <row r="43">
@@ -3393,19 +3393,19 @@
         <v>959637</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>951816</v>
+        <v>951081</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>963949</v>
+        <v>963959</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9931581209661688</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9850638578551246</v>
+        <v>0.9843029079034927</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9976204868439373</v>
+        <v>0.9976311098328136</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1303</v>
@@ -3414,19 +3414,19 @@
         <v>888554</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>880557</v>
+        <v>880685</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>893402</v>
+        <v>893441</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.9889986294761814</v>
+        <v>0.9889986294761813</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9800975488960806</v>
+        <v>0.9802397009040108</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.994394733395402</v>
+        <v>0.9944376241809867</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2239</v>
@@ -3435,19 +3435,19 @@
         <v>1848191</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1837686</v>
+        <v>1837513</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1855231</v>
+        <v>1855261</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.9911540052982458</v>
+        <v>0.9911540052982457</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9855205767792042</v>
+        <v>0.9854274538948623</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9949293665519952</v>
+        <v>0.994945569589306</v>
       </c>
     </row>
     <row r="45">
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>6682</v>
+        <v>7889</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.00150573296065412</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.007437021942895356</v>
+        <v>0.008780854512484568</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>6802</v>
+        <v>8718</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0007254884462245307</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.003647657298877784</v>
+        <v>0.004675130369991898</v>
       </c>
     </row>
     <row r="46">
@@ -3527,19 +3527,19 @@
         <v>4170</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1142</v>
+        <v>1153</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>11871</v>
+        <v>11679</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.004315820217867177</v>
+        <v>0.004315820217867176</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001181862445425988</v>
+        <v>0.001193232887983484</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0122858589863791</v>
+        <v>0.01208701031970654</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -3548,19 +3548,19 @@
         <v>3373</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>8872</v>
+        <v>8445</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.003754041692217601</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0008935733697605918</v>
+        <v>0.0009001770380291164</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.009874796426324758</v>
+        <v>0.009399841631778502</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -3569,19 +3569,19 @@
         <v>7543</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>3345</v>
+        <v>3065</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>16266</v>
+        <v>15199</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.004045145509704606</v>
+        <v>0.004045145509704605</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001793739919991144</v>
+        <v>0.001643531869632357</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.008723310864650892</v>
+        <v>0.008151169862484493</v>
       </c>
     </row>
     <row r="47">
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>4894</v>
+        <v>4999</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.001575860693504301</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.005447060920619044</v>
+        <v>0.005564303893496069</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2</v>
@@ -3635,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>5028</v>
+        <v>4277</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.0007592772130724218</v>
+        <v>0.0007592772130724217</v>
       </c>
       <c r="V47" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.002696694445725919</v>
+        <v>0.002293726122569696</v>
       </c>
     </row>
     <row r="48">
@@ -3665,19 +3665,19 @@
         <v>64243</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>47581</v>
+        <v>49396</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>83271</v>
+        <v>85102</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01892413997703772</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01401585019113502</v>
+        <v>0.01455071651242857</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02452918418184071</v>
+        <v>0.02506849016933415</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>92</v>
@@ -3686,19 +3686,19 @@
         <v>84155</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>65935</v>
+        <v>67884</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>104271</v>
+        <v>108708</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.0235619058303888</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01846077580734272</v>
+        <v>0.01900645521455819</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02919411680798937</v>
+        <v>0.03043637701038797</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>146</v>
@@ -3707,19 +3707,19 @@
         <v>148398</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>125086</v>
+        <v>120660</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>177688</v>
+        <v>175510</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.02130189559835419</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.0179554799420389</v>
+        <v>0.01732016372562309</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.02550630073832807</v>
+        <v>0.02519368803818386</v>
       </c>
     </row>
     <row r="49">
@@ -3736,19 +3736,19 @@
         <v>13226</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>6222</v>
+        <v>6948</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>22941</v>
+        <v>24501</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.003896009248903976</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.001832863333338424</v>
+        <v>0.002046765509018154</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.006757668311014674</v>
+        <v>0.007217117320265534</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>11</v>
@@ -3757,19 +3757,19 @@
         <v>8038</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>4207</v>
+        <v>4306</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>13685</v>
+        <v>14311</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.002250539959612858</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.001177789308395542</v>
+        <v>0.001205531465483432</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.003831495025071879</v>
+        <v>0.004006788120350884</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>22</v>
@@ -3778,19 +3778,19 @@
         <v>21264</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>13224</v>
+        <v>13541</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>31871</v>
+        <v>32493</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.003052386699592108</v>
+        <v>0.003052386699592109</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001898221052829418</v>
+        <v>0.001943692557602646</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.004574998329530499</v>
+        <v>0.004664174294030668</v>
       </c>
     </row>
     <row r="50">
@@ -3820,19 +3820,19 @@
         <v>3439</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>11392</v>
+        <v>12419</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.0009628755355099169</v>
+        <v>0.000962875535509917</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0001719172188666849</v>
+        <v>0.0001740088064658753</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.003189576043371007</v>
+        <v>0.003477222441016127</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3</v>
@@ -3841,19 +3841,19 @@
         <v>3439</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>612</v>
+        <v>810</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>12163</v>
+        <v>11917</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.0004936606955981859</v>
+        <v>0.000493660695598186</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>8.781554789804269e-05</v>
+        <v>0.0001162089442314922</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.001745958468021622</v>
+        <v>0.001710620038872233</v>
       </c>
     </row>
     <row r="51">
@@ -3870,19 +3870,19 @@
         <v>24371</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>13189</v>
+        <v>14386</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>40901</v>
+        <v>40082</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.007178998293170097</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.003884970237564114</v>
+        <v>0.004237642830533297</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.01204822433002789</v>
+        <v>0.01180709246655461</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>24</v>
@@ -3891,19 +3891,19 @@
         <v>17734</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>11625</v>
+        <v>11275</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>25611</v>
+        <v>26343</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.004965097624620228</v>
+        <v>0.004965097624620229</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.003254726024331812</v>
+        <v>0.003156924155244739</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.007170703243624539</v>
+        <v>0.007375470852293385</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>42</v>
@@ -3912,19 +3912,19 @@
         <v>42105</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>30231</v>
+        <v>29599</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>59733</v>
+        <v>62265</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.006043944276616613</v>
+        <v>0.006043944276616615</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.004339595533928644</v>
+        <v>0.004248737147792883</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.008574343671102509</v>
+        <v>0.008937884045488424</v>
       </c>
     </row>
     <row r="52">
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>5706</v>
+        <v>5662</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.0003327489642526948</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.001680954821959649</v>
+        <v>0.001667760634129968</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>6</v>
@@ -3962,19 +3962,19 @@
         <v>4893</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>2215</v>
+        <v>2186</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>10856</v>
+        <v>10401</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.001369974619294389</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0006202397396378144</v>
+        <v>0.0006121250510113883</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.003039632865366917</v>
+        <v>0.002912151061200769</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>7</v>
@@ -3983,19 +3983,19 @@
         <v>6023</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2527</v>
+        <v>2331</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>11611</v>
+        <v>12042</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.0008645285343806278</v>
+        <v>0.0008645285343806279</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.0003626694857369264</v>
+        <v>0.0003346730696125066</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.00166667015869955</v>
+        <v>0.001728530048460997</v>
       </c>
     </row>
     <row r="53">
@@ -4012,19 +4012,19 @@
         <v>34742</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>24504</v>
+        <v>24542</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>49990</v>
+        <v>50368</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01023383021924278</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.007218075678935856</v>
+        <v>0.007229191887388516</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01472542952343295</v>
+        <v>0.01483691776874671</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>33</v>
@@ -4033,19 +4033,19 @@
         <v>25499</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>17483</v>
+        <v>17796</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>35636</v>
+        <v>35336</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.007139319188173903</v>
+        <v>0.007139319188173904</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.00489482198513872</v>
+        <v>0.004982602808059989</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.009977534515013441</v>
+        <v>0.009893392740133228</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>64</v>
@@ -4054,19 +4054,19 @@
         <v>60241</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>45711</v>
+        <v>46805</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>76665</v>
+        <v>79801</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.008647292383566312</v>
+        <v>0.008647292383566315</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.006561566297042572</v>
+        <v>0.006718608384319034</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01100493769164379</v>
+        <v>0.01145502217978294</v>
       </c>
     </row>
     <row r="54">
@@ -4083,19 +4083,19 @@
         <v>46908</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>33714</v>
+        <v>34624</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>63762</v>
+        <v>62457</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01381761723158319</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.009931073271833782</v>
+        <v>0.01019910411332538</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01878234077293652</v>
+        <v>0.01839782392501727</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>60</v>
@@ -4104,19 +4104,19 @@
         <v>44505</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>34851</v>
+        <v>34293</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>59285</v>
+        <v>58230</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.01246071282738363</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.00975767076611098</v>
+        <v>0.009601466132375931</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.01659885415580116</v>
+        <v>0.01630344813890132</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>106</v>
@@ -4125,19 +4125,19 @@
         <v>91413</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>74064</v>
+        <v>73475</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>112139</v>
+        <v>110137</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.01312194022314963</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01063161110046178</v>
+        <v>0.01054700785667186</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01609708339563929</v>
+        <v>0.01580967520358163</v>
       </c>
     </row>
     <row r="55">
@@ -4154,19 +4154,19 @@
         <v>2915961</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>2868886</v>
+        <v>2867047</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>2958460</v>
+        <v>2956608</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.858954289946673</v>
+        <v>0.8589542899466729</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.8450875997976686</v>
+        <v>0.8445457276469565</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.8714732683276767</v>
+        <v>0.8709276800038094</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>4478</v>
@@ -4175,19 +4175,19 @@
         <v>3052810</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>3015010</v>
+        <v>3012741</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>3092701</v>
+        <v>3090311</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.854734770088165</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.8441514989849432</v>
+        <v>0.8435161508291459</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.8659034776133588</v>
+        <v>0.8652344768179603</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>7305</v>
@@ -4196,19 +4196,19 @@
         <v>5968771</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>5902572</v>
+        <v>5905370</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>6025463</v>
+        <v>6034342</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.8567909666181409</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.8472884432782483</v>
+        <v>0.8476899911845868</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.864928874519064</v>
+        <v>0.8662033594574395</v>
       </c>
     </row>
     <row r="56">
@@ -4225,19 +4225,19 @@
         <v>157607</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>132100</v>
+        <v>132761</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>187216</v>
+        <v>187807</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.04642628341575922</v>
+        <v>0.0464262834157592</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.0389126627419626</v>
+        <v>0.03910730732268367</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.0551481373741084</v>
+        <v>0.05532221526385211</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>194</v>
@@ -4246,19 +4246,19 @@
         <v>144951</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>123974</v>
+        <v>123904</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>169025</v>
+        <v>165361</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.04058375196991451</v>
+        <v>0.04058375196991452</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.03471056787150218</v>
+        <v>0.03469097198988595</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.04732401511542987</v>
+        <v>0.04629823638672229</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>334</v>
@@ -4267,19 +4267,19 @@
         <v>302558</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>270832</v>
+        <v>267884</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>341620</v>
+        <v>339723</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.0434308514712945</v>
+        <v>0.04343085147129451</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.03887674230115518</v>
+        <v>0.03845358440856902</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.04903806096097104</v>
+        <v>0.04876574131085817</v>
       </c>
     </row>
     <row r="57">
@@ -4296,19 +4296,19 @@
         <v>292474</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>259044</v>
+        <v>261631</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>325887</v>
+        <v>331420</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.08615415799282475</v>
+        <v>0.08615415799282473</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.07630657041286185</v>
+        <v>0.07706847146028152</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.09599660187697855</v>
+        <v>0.09762648652070956</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>454</v>
@@ -4317,19 +4317,19 @@
         <v>353753</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>320869</v>
+        <v>321373</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>387461</v>
+        <v>389596</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.09904473042767492</v>
+        <v>0.09904473042767493</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.08983786075115072</v>
+        <v>0.08997888798531178</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.1084825950607255</v>
+        <v>0.1090802085896055</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>739</v>
@@ -4338,19 +4338,19 @@
         <v>646227</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>597849</v>
+        <v>598490</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>700729</v>
+        <v>700186</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.09276307962408929</v>
+        <v>0.09276307962408932</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.08581858272878951</v>
+        <v>0.08591056011446467</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.1005866014775857</v>
+        <v>0.1005086929572883</v>
       </c>
     </row>
     <row r="58">
@@ -4367,19 +4367,19 @@
         <v>18745</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>9142</v>
+        <v>10017</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>33231</v>
+        <v>35100</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.005521738183115995</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.002692860121268458</v>
+        <v>0.002950648444980109</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.009788792823529679</v>
+        <v>0.0103395270669388</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>15</v>
@@ -4388,19 +4388,19 @@
         <v>12153</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>6959</v>
+        <v>7135</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>19803</v>
+        <v>20179</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.00340257612080055</v>
+        <v>0.003402576120800551</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.001948359019678709</v>
+        <v>0.001997817440106776</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.00554454875546731</v>
+        <v>0.005649713346030875</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>28</v>
@@ -4409,19 +4409,19 @@
         <v>30898</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>20196</v>
+        <v>20197</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>49746</v>
+        <v>48844</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.004435256099827927</v>
+        <v>0.004435256099827928</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.00289899919898839</v>
+        <v>0.002899132283005585</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.00714083490931877</v>
+        <v>0.007011378136089801</v>
       </c>
     </row>
     <row r="59">
